--- a/cgfy-tkmybatis/src/main/resources/templates/ExcelFill.xlsx
+++ b/cgfy-tkmybatis/src/main/resources/templates/ExcelFill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>项目</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>部门E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.imgUrl}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,45 +384,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +392,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,65 +767,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="54.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="35.88671875" customWidth="1"/>
     <col min="12" max="12" width="34.88671875" customWidth="1"/>
     <col min="13" max="13" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
@@ -827,22 +836,24 @@
       <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -864,13 +875,16 @@
       <c r="I5" s="4">
         <v>6</v>
       </c>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -889,61 +903,69 @@
       <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>

--- a/cgfy-tkmybatis/src/main/resources/templates/ExcelFill.xlsx
+++ b/cgfy-tkmybatis/src/main/resources/templates/ExcelFill.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -384,6 +387,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,15 +412,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,14 +773,14 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="10" width="33" customWidth="1"/>
@@ -787,17 +790,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -808,16 +811,16 @@
       <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -826,7 +829,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="27"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
@@ -836,8 +839,8 @@
       <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -846,12 +849,12 @@
       <c r="B4" s="32"/>
       <c r="C4" s="10"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -880,11 +883,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -908,11 +911,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -922,11 +925,11 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -936,11 +939,11 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -950,11 +953,11 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -979,7 +982,7 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
